--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cdon</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H2">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I2">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J2">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.51032266171251</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N2">
-        <v>2.51032266171251</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O2">
-        <v>0.07967325381632903</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P2">
-        <v>0.07967325381632903</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q2">
-        <v>3.574567532683276</v>
+        <v>0.5705036754288888</v>
       </c>
       <c r="R2">
-        <v>3.574567532683276</v>
+        <v>5.13453307886</v>
       </c>
       <c r="S2">
-        <v>0.0553468112669068</v>
+        <v>0.00714307350322133</v>
       </c>
       <c r="T2">
-        <v>0.0553468112669068</v>
+        <v>0.007143073503221332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H3">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I3">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J3">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.3186894789832</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N3">
-        <v>12.3186894789832</v>
+        <v>36.958952</v>
       </c>
       <c r="O3">
-        <v>0.3909736738280585</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P3">
-        <v>0.3909736738280585</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q3">
-        <v>17.5411663721113</v>
+        <v>2.686689950137777</v>
       </c>
       <c r="R3">
-        <v>17.5411663721113</v>
+        <v>24.18020955124</v>
       </c>
       <c r="S3">
-        <v>0.2715986243711788</v>
+        <v>0.03363908879250036</v>
       </c>
       <c r="T3">
-        <v>0.2715986243711788</v>
+        <v>0.03363908879250036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H4">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I4">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J4">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113661710738588</v>
+        <v>0.116602</v>
       </c>
       <c r="N4">
-        <v>0.113661710738588</v>
+        <v>0.349806</v>
       </c>
       <c r="O4">
-        <v>0.003607424044324224</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P4">
-        <v>0.003607424044324224</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q4">
-        <v>0.1618483022569807</v>
+        <v>0.02542875849666666</v>
       </c>
       <c r="R4">
-        <v>0.1618483022569807</v>
+        <v>0.2288588264699999</v>
       </c>
       <c r="S4">
-        <v>0.002505977955929726</v>
+        <v>0.0003183844361752838</v>
       </c>
       <c r="T4">
-        <v>0.002505977955929726</v>
+        <v>0.0003183844361752839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.42394744197734</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H5">
-        <v>1.42394744197734</v>
+        <v>0.654245</v>
       </c>
       <c r="I5">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J5">
-        <v>0.6946724103235191</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>16.5650472653606</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N5">
-        <v>16.5650472653606</v>
+        <v>0.179729</v>
       </c>
       <c r="O5">
-        <v>0.5257456483112882</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P5">
-        <v>0.5257456483112882</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q5">
-        <v>23.58775667974396</v>
+        <v>0.01306519995611111</v>
       </c>
       <c r="R5">
-        <v>23.58775667974396</v>
+        <v>0.117586799605</v>
       </c>
       <c r="S5">
-        <v>0.3652209967295038</v>
+        <v>0.0001635847193282779</v>
       </c>
       <c r="T5">
-        <v>0.3652209967295038</v>
+        <v>0.000163584719328278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.181629381205689</v>
+        <v>0.2180816666666666</v>
       </c>
       <c r="H6">
-        <v>0.181629381205689</v>
+        <v>0.654245</v>
       </c>
       <c r="I6">
-        <v>0.08860784907378141</v>
+        <v>0.08978107248204534</v>
       </c>
       <c r="J6">
-        <v>0.08860784907378141</v>
+        <v>0.08978107248204537</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.51032266171251</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N6">
-        <v>2.51032266171251</v>
+        <v>53.305109</v>
       </c>
       <c r="O6">
-        <v>0.07967325381632903</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P6">
-        <v>0.07967325381632903</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q6">
-        <v>0.4559483516734614</v>
+        <v>3.874955670856111</v>
       </c>
       <c r="R6">
-        <v>0.4559483516734614</v>
+        <v>34.874601037705</v>
       </c>
       <c r="S6">
-        <v>0.007059675649374362</v>
+        <v>0.04851694103082009</v>
       </c>
       <c r="T6">
-        <v>0.007059675649374362</v>
+        <v>0.0485169410308201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H7">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I7">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J7">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.3186894789832</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N7">
-        <v>12.3186894789832</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O7">
-        <v>0.3909736738280585</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P7">
-        <v>0.3909736738280585</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q7">
-        <v>2.23743594733275</v>
+        <v>3.749343928816444</v>
       </c>
       <c r="R7">
-        <v>2.23743594733275</v>
+        <v>33.744095359348</v>
       </c>
       <c r="S7">
-        <v>0.03464333628237845</v>
+        <v>0.04694420110836037</v>
       </c>
       <c r="T7">
-        <v>0.03464333628237845</v>
+        <v>0.04694420110836037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H8">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I8">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J8">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113661710738588</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N8">
-        <v>0.113661710738588</v>
+        <v>36.958952</v>
       </c>
       <c r="O8">
-        <v>0.003607424044324224</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P8">
-        <v>0.003607424044324224</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q8">
-        <v>0.02064430618822975</v>
+        <v>17.65689703153689</v>
       </c>
       <c r="R8">
-        <v>0.02064430618822975</v>
+        <v>158.912073283832</v>
       </c>
       <c r="S8">
-        <v>0.0003196460852646109</v>
+        <v>0.2210757244294029</v>
       </c>
       <c r="T8">
-        <v>0.0003196460852646109</v>
+        <v>0.2210757244294029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.181629381205689</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H9">
-        <v>0.181629381205689</v>
+        <v>4.299691</v>
       </c>
       <c r="I9">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J9">
-        <v>0.08860784907378141</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.5650472653606</v>
+        <v>0.116602</v>
       </c>
       <c r="N9">
-        <v>16.5650472653606</v>
+        <v>0.349806</v>
       </c>
       <c r="O9">
-        <v>0.5257456483112882</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P9">
-        <v>0.5257456483112882</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q9">
-        <v>3.008699284450437</v>
+        <v>0.1671175233273333</v>
       </c>
       <c r="R9">
-        <v>3.008699284450437</v>
+        <v>1.504057709946</v>
       </c>
       <c r="S9">
-        <v>0.04658519105676399</v>
+        <v>0.002092419039905452</v>
       </c>
       <c r="T9">
-        <v>0.04658519105676399</v>
+        <v>0.002092419039905453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.274224173678069</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H10">
-        <v>0.274224173678069</v>
+        <v>4.299691</v>
       </c>
       <c r="I10">
-        <v>0.1337801958711275</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J10">
-        <v>0.1337801958711275</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.51032266171251</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N10">
-        <v>2.51032266171251</v>
+        <v>0.179729</v>
       </c>
       <c r="O10">
-        <v>0.07967325381632903</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P10">
-        <v>0.07967325381632903</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q10">
-        <v>0.6883911575734438</v>
+        <v>0.08586435152655555</v>
       </c>
       <c r="R10">
-        <v>0.6883911575734438</v>
+        <v>0.772779163739</v>
       </c>
       <c r="S10">
-        <v>0.01065870350123856</v>
+        <v>0.001075076990169314</v>
       </c>
       <c r="T10">
-        <v>0.01065870350123856</v>
+        <v>0.001075076990169314</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.274224173678069</v>
+        <v>1.433230333333333</v>
       </c>
       <c r="H11">
-        <v>0.274224173678069</v>
+        <v>4.299691</v>
       </c>
       <c r="I11">
-        <v>0.1337801958711275</v>
+        <v>0.5900402285403756</v>
       </c>
       <c r="J11">
-        <v>0.1337801958711275</v>
+        <v>0.5900402285403757</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.3186894789832</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N11">
-        <v>12.3186894789832</v>
+        <v>53.305109</v>
       </c>
       <c r="O11">
-        <v>0.3909736738280585</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P11">
-        <v>0.3909736738280585</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q11">
-        <v>3.378082443170891</v>
+        <v>25.46616638014656</v>
       </c>
       <c r="R11">
-        <v>3.378082443170891</v>
+        <v>229.195497421319</v>
       </c>
       <c r="S11">
-        <v>0.05230453466517199</v>
+        <v>0.3188528069725377</v>
       </c>
       <c r="T11">
-        <v>0.05230453466517199</v>
+        <v>0.3188528069725377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H12">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I12">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J12">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113661710738588</v>
+        <v>2.616009333333333</v>
       </c>
       <c r="N12">
-        <v>0.113661710738588</v>
+        <v>7.848027999999999</v>
       </c>
       <c r="O12">
-        <v>0.003607424044324224</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="P12">
-        <v>0.003607424044324224</v>
+        <v>0.07956101777075364</v>
       </c>
       <c r="Q12">
-        <v>0.03116878870612499</v>
+        <v>0.7531002548924444</v>
       </c>
       <c r="R12">
-        <v>0.03116878870612499</v>
+        <v>6.777902294031999</v>
       </c>
       <c r="S12">
-        <v>0.0004826018952399096</v>
+        <v>0.009429300296702433</v>
       </c>
       <c r="T12">
-        <v>0.0004826018952399096</v>
+        <v>0.009429300296702433</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.274224173678069</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H13">
-        <v>0.274224173678069</v>
+        <v>0.863644</v>
       </c>
       <c r="I13">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J13">
-        <v>0.1337801958711275</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.5650472653606</v>
+        <v>12.31965066666667</v>
       </c>
       <c r="N13">
-        <v>16.5650472653606</v>
+        <v>36.958952</v>
       </c>
       <c r="O13">
-        <v>0.5257456483112882</v>
+        <v>0.3746790705716686</v>
       </c>
       <c r="P13">
-        <v>0.5257456483112882</v>
+        <v>0.3746790705716685</v>
       </c>
       <c r="Q13">
-        <v>4.542536398281667</v>
+        <v>3.546597460120889</v>
       </c>
       <c r="R13">
-        <v>4.542536398281667</v>
+        <v>31.919377141088</v>
       </c>
       <c r="S13">
-        <v>0.07033435580947707</v>
+        <v>0.04440568472225265</v>
       </c>
       <c r="T13">
-        <v>0.07033435580947707</v>
+        <v>0.04440568472225265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.170010426215553</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H14">
-        <v>0.170010426215553</v>
+        <v>0.863644</v>
       </c>
       <c r="I14">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J14">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.51032266171251</v>
+        <v>0.116602</v>
       </c>
       <c r="N14">
-        <v>2.51032266171251</v>
+        <v>0.349806</v>
       </c>
       <c r="O14">
-        <v>0.07967325381632903</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="P14">
-        <v>0.07967325381632903</v>
+        <v>0.003546231152885317</v>
       </c>
       <c r="Q14">
-        <v>0.4267810256563053</v>
+        <v>0.03356753922933333</v>
       </c>
       <c r="R14">
-        <v>0.4267810256563053</v>
+        <v>0.302107853064</v>
       </c>
       <c r="S14">
-        <v>0.006608063398809306</v>
+        <v>0.0004202872134997851</v>
       </c>
       <c r="T14">
-        <v>0.006608063398809306</v>
+        <v>0.0004202872134997851</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.170010426215553</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H15">
-        <v>0.170010426215553</v>
+        <v>0.863644</v>
       </c>
       <c r="I15">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J15">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>12.3186894789832</v>
+        <v>0.05990966666666667</v>
       </c>
       <c r="N15">
-        <v>12.3186894789832</v>
+        <v>0.179729</v>
       </c>
       <c r="O15">
-        <v>0.3909736738280585</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="P15">
-        <v>0.3909736738280585</v>
+        <v>0.001822040156192076</v>
       </c>
       <c r="Q15">
-        <v>2.094305648738982</v>
+        <v>0.01724687471955556</v>
       </c>
       <c r="R15">
-        <v>2.094305648738982</v>
+        <v>0.155221872476</v>
       </c>
       <c r="S15">
-        <v>0.03242717850932927</v>
+        <v>0.0002159419809697457</v>
       </c>
       <c r="T15">
-        <v>0.03242717850932927</v>
+        <v>0.0002159419809697458</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.170010426215553</v>
+        <v>0.2878813333333333</v>
       </c>
       <c r="H16">
-        <v>0.170010426215553</v>
+        <v>0.863644</v>
       </c>
       <c r="I16">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541755</v>
       </c>
       <c r="J16">
-        <v>0.08293954473157193</v>
+        <v>0.1185165871541756</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.113661710738588</v>
+        <v>17.76836966666667</v>
       </c>
       <c r="N16">
-        <v>0.113661710738588</v>
+        <v>53.305109</v>
       </c>
       <c r="O16">
-        <v>0.003607424044324224</v>
+        <v>0.5403916403485004</v>
       </c>
       <c r="P16">
-        <v>0.003607424044324224</v>
+        <v>0.5403916403485003</v>
       </c>
       <c r="Q16">
-        <v>0.01932367588705624</v>
+        <v>5.115181950799556</v>
       </c>
       <c r="R16">
-        <v>0.01932367588705624</v>
+        <v>46.036637557196</v>
       </c>
       <c r="S16">
-        <v>0.0002991981078899771</v>
+        <v>0.06404537294075092</v>
       </c>
       <c r="T16">
-        <v>0.0002991981078899771</v>
+        <v>0.06404537294075092</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J17">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.616009333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.848027999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="P17">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="Q17">
+        <v>0.7236448618022222</v>
+      </c>
+      <c r="R17">
+        <v>6.51280375622</v>
+      </c>
+      <c r="S17">
+        <v>0.009060499801680976</v>
+      </c>
+      <c r="T17">
+        <v>0.009060499801680976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J18">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.31965066666667</v>
+      </c>
+      <c r="N18">
+        <v>36.958952</v>
+      </c>
+      <c r="O18">
+        <v>0.3746790705716686</v>
+      </c>
+      <c r="P18">
+        <v>0.3746790705716685</v>
+      </c>
+      <c r="Q18">
+        <v>3.407882300164445</v>
+      </c>
+      <c r="R18">
+        <v>30.67094070148</v>
+      </c>
+      <c r="S18">
+        <v>0.04266888156697922</v>
+      </c>
+      <c r="T18">
+        <v>0.04266888156697921</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J19">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.116602</v>
+      </c>
+      <c r="N19">
+        <v>0.349806</v>
+      </c>
+      <c r="O19">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="P19">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="Q19">
+        <v>0.03225463957666667</v>
+      </c>
+      <c r="R19">
+        <v>0.29029175619</v>
+      </c>
+      <c r="S19">
+        <v>0.0004038488641512002</v>
+      </c>
+      <c r="T19">
+        <v>0.0004038488641512002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J20">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05990966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.179729</v>
+      </c>
+      <c r="O20">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="P20">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="Q20">
+        <v>0.01657231184277778</v>
+      </c>
+      <c r="R20">
+        <v>0.149150806585</v>
+      </c>
+      <c r="S20">
+        <v>0.0002074960192364656</v>
+      </c>
+      <c r="T20">
+        <v>0.0002074960192364656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2766216666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.8298650000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="J21">
+        <v>0.1138811450073177</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.76836966666667</v>
+      </c>
+      <c r="N21">
+        <v>53.305109</v>
+      </c>
+      <c r="O21">
+        <v>0.5403916403485004</v>
+      </c>
+      <c r="P21">
+        <v>0.5403916403485003</v>
+      </c>
+      <c r="Q21">
+        <v>4.915116031142779</v>
+      </c>
+      <c r="R21">
+        <v>44.23604428028501</v>
+      </c>
+      <c r="S21">
+        <v>0.06154041875526986</v>
+      </c>
+      <c r="T21">
+        <v>0.06154041875526985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.63967</v>
+      </c>
+      <c r="I22">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J22">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.616009333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.848027999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="P22">
+        <v>0.07956101777075364</v>
+      </c>
+      <c r="Q22">
+        <v>0.5577942300844443</v>
+      </c>
+      <c r="R22">
+        <v>5.020148070759999</v>
+      </c>
+      <c r="S22">
+        <v>0.006983943060788525</v>
+      </c>
+      <c r="T22">
+        <v>0.006983943060788526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.63967</v>
+      </c>
+      <c r="I23">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J23">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.31965066666667</v>
+      </c>
+      <c r="N23">
+        <v>36.958952</v>
+      </c>
+      <c r="O23">
+        <v>0.3746790705716686</v>
+      </c>
+      <c r="P23">
+        <v>0.3746790705716685</v>
+      </c>
+      <c r="Q23">
+        <v>2.626836980648889</v>
+      </c>
+      <c r="R23">
+        <v>23.64153282584</v>
+      </c>
+      <c r="S23">
+        <v>0.03288969106053344</v>
+      </c>
+      <c r="T23">
+        <v>0.03288969106053345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.63967</v>
+      </c>
+      <c r="I24">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J24">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.116602</v>
+      </c>
+      <c r="N24">
+        <v>0.349806</v>
+      </c>
+      <c r="O24">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="P24">
+        <v>0.003546231152885317</v>
+      </c>
+      <c r="Q24">
+        <v>0.02486226711333333</v>
+      </c>
+      <c r="R24">
+        <v>0.2237604040199999</v>
+      </c>
+      <c r="S24">
+        <v>0.0003112915991535951</v>
+      </c>
+      <c r="T24">
+        <v>0.0003112915991535951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.170010426215553</v>
-      </c>
-      <c r="H17">
-        <v>0.170010426215553</v>
-      </c>
-      <c r="I17">
-        <v>0.08293954473157193</v>
-      </c>
-      <c r="J17">
-        <v>0.08293954473157193</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>16.5650472653606</v>
-      </c>
-      <c r="N17">
-        <v>16.5650472653606</v>
-      </c>
-      <c r="O17">
-        <v>0.5257456483112882</v>
-      </c>
-      <c r="P17">
-        <v>0.5257456483112882</v>
-      </c>
-      <c r="Q17">
-        <v>2.816230745864737</v>
-      </c>
-      <c r="R17">
-        <v>2.816230745864737</v>
-      </c>
-      <c r="S17">
-        <v>0.04360510471554337</v>
-      </c>
-      <c r="T17">
-        <v>0.04360510471554337</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.63967</v>
+      </c>
+      <c r="I25">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J25">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.05990966666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.179729</v>
+      </c>
+      <c r="O25">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="P25">
+        <v>0.001822040156192076</v>
+      </c>
+      <c r="Q25">
+        <v>0.01277413882555556</v>
+      </c>
+      <c r="R25">
+        <v>0.11496724943</v>
+      </c>
+      <c r="S25">
+        <v>0.0001599404464882721</v>
+      </c>
+      <c r="T25">
+        <v>0.0001599404464882721</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2132233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.63967</v>
+      </c>
+      <c r="I26">
+        <v>0.08778096681608563</v>
+      </c>
+      <c r="J26">
+        <v>0.08778096681608565</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.76836966666667</v>
+      </c>
+      <c r="N26">
+        <v>53.305109</v>
+      </c>
+      <c r="O26">
+        <v>0.5403916403485004</v>
+      </c>
+      <c r="P26">
+        <v>0.5403916403485003</v>
+      </c>
+      <c r="Q26">
+        <v>3.788631008225556</v>
+      </c>
+      <c r="R26">
+        <v>34.09767907403</v>
+      </c>
+      <c r="S26">
+        <v>0.04743610064912179</v>
+      </c>
+      <c r="T26">
+        <v>0.04743610064912179</v>
       </c>
     </row>
   </sheetData>
